--- a/Problem 8/Performance.xlsx
+++ b/Problem 8/Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FCAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\A1\Problem 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0CFB66-45C8-4D4D-B417-58FA3ABFCACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A95C6C-D38D-44CC-875C-38AF0F8F57E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF00ACA-7940-4720-88F9-7FB63444059B}"/>
   </bookViews>
@@ -53,13 +53,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -125,16 +134,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -157,16 +166,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -430,16 +439,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -489,16 +498,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -531,16 +540,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -578,7 +587,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1151,16 +1163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28452</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371290</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104652</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1487,128 +1499,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D3E049-FC52-4381-A79D-8071AF23D056}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>100</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>500</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.27310000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.1386000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.79120000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>24.498000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>16.345600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>10000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>94.664100000000005</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>65.792100000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>50000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2373.37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1596.62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>100000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>9583.36</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6390.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
